--- a/03 - Exponential Smoothing/hw-03.xlsx
+++ b/03 - Exponential Smoothing/hw-03.xlsx
@@ -5,16 +5,48 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gdrive\BADS\7204-LM Forecasting\work\03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\business-forecasting\03 - Exponential Smoothing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FAF518-465F-4483-AFAD-08BFE1209839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235FD026-97C3-41A7-88CF-B467E0D7D9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="4140" windowWidth="22920" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C3P10" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'C3P10'!$D$2</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'C3P10'!$D$2</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'C3P10'!$E$11</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -568,7 +600,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -592,7 +624,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1</v>
+        <v>0.55899462099839015</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>11</v>
@@ -645,7 +677,7 @@
       </c>
       <c r="D5" s="15">
         <f>$D$2*C5+(1-$D$2)*D4</f>
-        <v>20.8</v>
+        <v>19.882010758003219</v>
       </c>
       <c r="E5" s="13">
         <f>D4</f>
@@ -665,11 +697,11 @@
       </c>
       <c r="D6" s="15">
         <f t="shared" ref="D6:D8" si="0">$D$2*C6+(1-$D$2)*D5</f>
-        <v>21.820000000000004</v>
+        <v>26.096906940597385</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" ref="E6:E9" si="1">D5</f>
-        <v>20.8</v>
+        <v>19.882010758003219</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="2" t="s">
@@ -688,11 +720,11 @@
       </c>
       <c r="D7" s="15">
         <f t="shared" si="0"/>
-        <v>22.338000000000005</v>
+        <v>26.601731103064427</v>
       </c>
       <c r="E7" s="13">
         <f t="shared" si="1"/>
-        <v>21.820000000000004</v>
+        <v>26.096906940597385</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="2" t="s">
@@ -711,11 +743,11 @@
       </c>
       <c r="D8" s="15">
         <f t="shared" si="0"/>
-        <v>23.004200000000004</v>
+        <v>27.942350516159152</v>
       </c>
       <c r="E8" s="13">
         <f t="shared" si="1"/>
-        <v>22.338000000000005</v>
+        <v>26.601731103064427</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="2" t="s">
@@ -733,7 +765,7 @@
       <c r="D9" s="14"/>
       <c r="E9" s="13">
         <f t="shared" si="1"/>
-        <v>23.004200000000004</v>
+        <v>27.942350516159152</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -742,7 +774,7 @@
       </c>
       <c r="E11" s="1">
         <f t="array" ref="E11">SQRT(AVERAGE((C5:C8-E5:E8)^2))</f>
-        <v>6.6943006356153418</v>
+        <v>5.7917388485908505</v>
       </c>
       <c r="F11" s="8"/>
     </row>
